--- a/OpenxmlConsoleApplication/bin/Debug/O&M_Copy.xlsx
+++ b/OpenxmlConsoleApplication/bin/Debug/O&M_Copy.xlsx
@@ -23,7 +23,7 @@
     <x:sheet name="Total Influent" sheetId="16" r:id="rId9"/>
     <x:sheet name="Weekly Inj_Rates" sheetId="8" r:id="rId10"/>
     <x:sheet name="Weekly Ext_Rates" sheetId="9" r:id="rId11"/>
-    <x:sheet name="records" sheetId="17" r:id="Rab139b6fbe354c81"/>
+    <x:sheet name="records" sheetId="17" r:id="Rc6c913541d714057"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'RAW Data_all'!$A$1:$D$770</x:definedName>
@@ -73094,10 +73094,10 @@
         <x:v>42169</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>10.7360982510288</x:v>
+        <x:v>2.00694444444444</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>75919</x:v>
+        <x:v>14450</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -73108,10 +73108,10 @@
         <x:v>42176</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>48.846875</x:v>
+        <x:v>6.86458333333333</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>216598</x:v>
+        <x:v>34220</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -73122,10 +73122,10 @@
         <x:v>42183</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>58.5833333333333</x:v>
+        <x:v>10.7795138888889</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>554038</x:v>
+        <x:v>96310</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -73136,10 +73136,10 @@
         <x:v>42197</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>21.7322916666667</x:v>
+        <x:v>4.09027777777778</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>679216</x:v>
+        <x:v>119870</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -73150,10 +73150,10 @@
         <x:v>42204</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>36.3551388888889</x:v>
+        <x:v>5.33611111111111</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>940973</x:v>
+        <x:v>158290</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -73164,10 +73164,10 @@
         <x:v>42211</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>28.3994791666667</x:v>
+        <x:v>2.84548611111111</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>1104554</x:v>
+        <x:v>174680</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -73178,10 +73178,10 @@
         <x:v>42218</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>19.3518055555556</x:v>
+        <x:v>3.50416666666667</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>1237800</x:v>
+        <x:v>199910</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -73192,10 +73192,10 @@
         <x:v>42225</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>57.1697172619048</x:v>
+        <x:v>11.6510416666667</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>1544237</x:v>
+        <x:v>267020</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -73206,10 +73206,10 @@
         <x:v>42232</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>36.8486111111111</x:v>
+        <x:v>9.02430555555556</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>1756485</x:v>
+        <x:v>319000</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -73220,10 +73220,10 @@
         <x:v>42239</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>35.9184027777778</x:v>
+        <x:v>3.02430555555556</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>1963375</x:v>
+        <x:v>336420</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -73234,10 +73234,10 @@
         <x:v>42246</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>52.9684027777778</x:v>
+        <x:v>10.6875</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>2115924</x:v>
+        <x:v>367200</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -73248,10 +73248,10 @@
         <x:v>42253</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>59.1840277777778</x:v>
+        <x:v>12.1510416666667</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>2456824</x:v>
+        <x:v>437190</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -73262,10 +73262,10 @@
         <x:v>42260</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>42.6241319444444</x:v>
+        <x:v>6.72048611111111</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>2702339</x:v>
+        <x:v>475900</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
@@ -73276,10 +73276,10 @@
         <x:v>42267</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>24.2868055555556</x:v>
+        <x:v>3.25347222222222</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>2772285</x:v>
+        <x:v>485270</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
@@ -73290,10 +73290,10 @@
         <x:v>42274</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>56.0972222222222</x:v>
+        <x:v>14.8819444444444</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>3095405</x:v>
+        <x:v>570990</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -73304,10 +73304,10 @@
         <x:v>42281</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>53.6204861111111</x:v>
+        <x:v>12.4184027777778</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>3404259</x:v>
+        <x:v>642520</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
@@ -73318,10 +73318,10 @@
         <x:v>42288</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>48.3909722222222</x:v>
+        <x:v>9.578125</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>3682991</x:v>
+        <x:v>697690</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -73332,10 +73332,10 @@
         <x:v>42295</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>48.8590277777778</x:v>
+        <x:v>9.09722222222222</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>3964419</x:v>
+        <x:v>750090</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
@@ -73346,10 +73346,10 @@
         <x:v>42302</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>60.3446180555556</x:v>
+        <x:v>13.4930555555556</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>4312004</x:v>
+        <x:v>827810</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -73360,10 +73360,10 @@
         <x:v>42309</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>52.2800347222222</x:v>
+        <x:v>10.4861111111111</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>4582937</x:v>
+        <x:v>858010</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
@@ -73374,10 +73374,10 @@
         <x:v>42316</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>53.0352430555556</x:v>
+        <x:v>9.95659722222222</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>4888420</x:v>
+        <x:v>915360</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
@@ -73388,10 +73388,10 @@
         <x:v>42323</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>71.4979166666667</x:v>
+        <x:v>8.88888888888889</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>5300248</x:v>
+        <x:v>966560</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
@@ -73402,10 +73402,10 @@
         <x:v>42330</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>54.0086805555555</x:v>
+        <x:v>11.4340277777778</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>5455793</x:v>
+        <x:v>999490</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
@@ -73416,10 +73416,10 @@
         <x:v>42337</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>51.1790674603175</x:v>
+        <x:v>15.0902777777778</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>5623593</x:v>
+        <x:v>1086410</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
@@ -73430,10 +73430,10 @@
         <x:v>42344</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>56.1433531746032</x:v>
+        <x:v>13.7638888888889</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>6741730</x:v>
+        <x:v>1165690</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
@@ -73444,10 +73444,10 @@
         <x:v>42351</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>59.8611111111111</x:v>
+        <x:v>11.8420138888889</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>6931190</x:v>
+        <x:v>1233900</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
@@ -73458,10 +73458,10 @@
         <x:v>42358</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>51.5973214285714</x:v>
+        <x:v>14.4895833333333</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>7003790</x:v>
+        <x:v>1275630</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
@@ -73472,10 +73472,10 @@
         <x:v>42365</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>40.5321428571429</x:v>
+        <x:v>10.4930555555556</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>7055830</x:v>
+        <x:v>1305850</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
@@ -73486,10 +73486,10 @@
         <x:v>42372</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>61.8167328042328</x:v>
+        <x:v>12.575</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>7214790</x:v>
+        <x:v>1396390</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
@@ -73500,10 +73500,10 @@
         <x:v>42379</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>66.6867063492063</x:v>
+        <x:v>11.3333333333333</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>8431709</x:v>
+        <x:v>1461670</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
@@ -73514,10 +73514,10 @@
         <x:v>42386</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>68.866121031746</x:v>
+        <x:v>9.66840277777778</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>8685179</x:v>
+        <x:v>1517360</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
@@ -73528,10 +73528,10 @@
         <x:v>42393</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>37.8156498015873</x:v>
+        <x:v>7.56979166666667</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>8828056</x:v>
+        <x:v>1560962</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
@@ -73542,10 +73542,10 @@
         <x:v>42407</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>15.3496527777778</x:v>
+        <x:v>2.35108024691358</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>9808341</x:v>
+        <x:v>1560962</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
@@ -73556,10 +73556,10 @@
         <x:v>42414</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>40.0318865740741</x:v>
+        <x:v>9.68287037037037</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>9979781</x:v>
+        <x:v>1602792</x:v>
       </x:c>
     </x:row>
     <x:row r="36">
@@ -73570,10 +73570,10 @@
         <x:v>42421</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>64.3409722222222</x:v>
+        <x:v>10.8420138888889</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>10234601</x:v>
+        <x:v>1665242</x:v>
       </x:c>
     </x:row>
     <x:row r="37">
@@ -73584,10 +73584,10 @@
         <x:v>42428</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>85.6769097222222</x:v>
+        <x:v>13.0034722222222</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>10728100</x:v>
+        <x:v>1740142</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
@@ -73598,10 +73598,10 @@
         <x:v>42435</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>64.4342013888889</x:v>
+        <x:v>11.4930555555556</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>11099241</x:v>
+        <x:v>1806342</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
@@ -73612,10 +73612,10 @@
         <x:v>42442</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>66.5824074074074</x:v>
+        <x:v>12.4884259259259</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>11386877</x:v>
+        <x:v>1860292</x:v>
       </x:c>
     </x:row>
     <x:row r="40">
@@ -73626,10 +73626,10 @@
         <x:v>42449</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>56.3988425925926</x:v>
+        <x:v>10.5185185185185</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>11630520</x:v>
+        <x:v>1905732</x:v>
       </x:c>
     </x:row>
     <x:row r="41">
@@ -73640,10 +73640,10 @@
         <x:v>42456</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>70.6368055555556</x:v>
+        <x:v>12.7916666666667</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>11833954</x:v>
+        <x:v>1942572</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/OpenxmlConsoleApplication/bin/Debug/O&M_Copy.xlsx
+++ b/OpenxmlConsoleApplication/bin/Debug/O&M_Copy.xlsx
@@ -23,7 +23,7 @@
     <x:sheet name="Total Influent" sheetId="16" r:id="rId9"/>
     <x:sheet name="Weekly Inj_Rates" sheetId="8" r:id="rId10"/>
     <x:sheet name="Weekly Ext_Rates" sheetId="9" r:id="rId11"/>
-    <x:sheet name="records" sheetId="17" r:id="Rc6c913541d714057"/>
+    <x:sheet name="records" sheetId="17" r:id="Rfe667684a1bf41fc"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'RAW Data_all'!$A$1:$D$770</x:definedName>
@@ -1932,13 +1932,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>('records'!$B$2:$B$41)</c:f>
+              <c:f>('records'!$B$42:$B$79)</c:f>
               <c:numCache/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('records'!$C$2:$C$41)</c:f>
+              <c:f>('records'!$C$42:$C$79)</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1966,257 +1966,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>('Weekly Inj_Rates'!$H$15,'Weekly Inj_Rates'!$H$34,'Weekly Inj_Rates'!$H$53,'Weekly Inj_Rates'!$H$76,'Weekly Inj_Rates'!$H$91,'Weekly Inj_Rates'!$H$106,'Weekly Inj_Rates'!$H$129,'Weekly Inj_Rates'!$H$144,'Weekly Inj_Rates'!$H$159,'Weekly Inj_Rates'!$H$173,'Weekly Inj_Rates'!$H$184,'Weekly Inj_Rates'!$H$199,'Weekly Inj_Rates'!$H$214,'Weekly Inj_Rates'!$H$225,'Weekly Inj_Rates'!$H$236,'Weekly Inj_Rates'!$H$273,'Weekly Inj_Rates'!$H$288,'Weekly Inj_Rates'!$H$299,'Weekly Inj_Rates'!$H$314,'Weekly Inj_Rates'!$H$329,'Weekly Inj_Rates'!$H$344,'Weekly Inj_Rates'!$H$359,'Weekly Inj_Rates'!$H$370,'Weekly Inj_Rates'!$H$381,'Weekly Inj_Rates'!$H$396,'Weekly Inj_Rates'!$H$411,'Weekly Inj_Rates'!$H$422,'Weekly Inj_Rates'!$H$433,'Weekly Inj_Rates'!$H$457,'Weekly Inj_Rates'!$H$474,'Weekly Inj_Rates'!$H$490,'Weekly Inj_Rates'!$H$502,'Weekly Inj_Rates'!$H$512,'Weekly Inj_Rates'!$H$524,'Weekly Inj_Rates'!$H$540,'Weekly Inj_Rates'!$H$556,'Weekly Inj_Rates'!$H$572,'Weekly Inj_Rates'!$H$584,'Weekly Inj_Rates'!$H$596,'Weekly Inj_Rates'!$H$608)</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42226</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42233</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42240.697916666664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42249.337500000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42254.347222222219</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42261.321527777778</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42268.665972222225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42275.436111111114</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42279.411805555559</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42289.338888888888</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42296.396527777775</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42303.357638888891</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42310.379861111112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42317.574999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42324.416666666664</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42331.348611111112</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42338.527777777781</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42345.645833333336</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42352.334027777775</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42359.444444444445</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42366.636805555558</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="m/d/yyyy\ h:mm">
-                  <c:v>42373.343055555553</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="m/d/yyyy\ h:mm">
-                  <c:v>42380.372916666667</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="m/d/yyyy\ h:mm">
-                  <c:v>42387.590277777781</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="m/d/yyyy\ h:mm">
-                  <c:v>42394.630555555559</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="m/d/yyyy\ h:mm">
-                  <c:v>42412.60833333333</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="m/d/yyyy\ h:mm">
-                  <c:v>42416.474999999999</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="m/d/yyyy\ h:mm">
-                  <c:v>42422.419444444444</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="m/d/yyyy\ h:mm">
-                  <c:v>42429.363888888889</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="m/d/yyyy\ h:mm">
-                  <c:v>42436.354166666664</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="m/d/yyyy\ h:mm">
-                  <c:v>42443.369444444441</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="m/d/yyyy\ h:mm">
-                  <c:v>42450.362500000003</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="m/d/yyyy\ h:mm">
-                  <c:v>42457.690972222219</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>('records'!$B$2:$B$41)</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Weekly Ext_Rates'!$G$24,'Weekly Ext_Rates'!$G$43,'Weekly Ext_Rates'!$G$62,'Weekly Ext_Rates'!$G$81,'Weekly Ext_Rates'!$G$96,'Weekly Ext_Rates'!$G$115,'Weekly Ext_Rates'!$G$157,'Weekly Ext_Rates'!$G$182,'Weekly Ext_Rates'!$G$206,'Weekly Ext_Rates'!$G$233,'Weekly Ext_Rates'!$G$252,'Weekly Ext_Rates'!$G$276,'Weekly Ext_Rates'!$G$303,'Weekly Ext_Rates'!$G$322,'Weekly Ext_Rates'!$G$341,'Weekly Ext_Rates'!$G$409,'Weekly Ext_Rates'!$G$436,'Weekly Ext_Rates'!$G$463,'Weekly Ext_Rates'!$G$490,'Weekly Ext_Rates'!$G$517,'Weekly Ext_Rates'!$G$544,'Weekly Ext_Rates'!$G$571,'Weekly Ext_Rates'!$G$590,'Weekly Ext_Rates'!$G$601,'Weekly Ext_Rates'!$G$612,'Weekly Ext_Rates'!$G$623,'Weekly Ext_Rates'!$G$634,'Weekly Ext_Rates'!$G$644,'Weekly Ext_Rates'!$G$687,'Weekly Ext_Rates'!$G$698,'Weekly Ext_Rates'!$G$710,'Weekly Ext_Rates'!$G$722,'Weekly Ext_Rates'!$G$734,'Weekly Ext_Rates'!$G$746,'Weekly Ext_Rates'!$G$758,'Weekly Ext_Rates'!$G$785,'Weekly Ext_Rates'!$G$813,'Weekly Ext_Rates'!$G$833,'Weekly Ext_Rates'!$G$873)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>3.2672697549804566</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.2263865620263061</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.681127982651793</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6592960182840635</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4426441757008881</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6015123244620817</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0887618369093079</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.742774255575259</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.003589416226429</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.9048913157028133</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.665558129991911</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.380763366868639</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.387718321125073</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.2990869725053749</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18.221619436565931</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.848566528659374</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.660465558590964</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.7491305966567907</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.33843097020573</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.950672359520716</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.335116113330439</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.394851398807432</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.593622735486486</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15.085073708190903</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20.304568932022079</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19.761578453200041</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18.12904033767834</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.28590107069822</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16.131771273293516</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>17.981858880299484</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16.878771198185113</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.0415236554635285</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.4121827924497659</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.24764791455825383</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14.447321207159874</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.101837591791492</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.0475752393821907</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.2183426235731378</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.183536976732821</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>('records'!$C$2:$C$41)</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2928,13 +2685,13 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('records'!$B$2:$B$41)</c:f>
+              <c:f>('records'!$B$42:$B$79)</c:f>
               <c:numCache/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('records'!$D$2:$D$41)</c:f>
+              <c:f>('records'!$D$42:$D$79)</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2977,260 +2734,14 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Weekly Ext_Rates'!$H$24,'Weekly Ext_Rates'!$H$43,'Weekly Ext_Rates'!$H$62,'Weekly Ext_Rates'!$H$81,'Weekly Ext_Rates'!$H$96,'Weekly Ext_Rates'!$H$115,'Weekly Ext_Rates'!$H$157,'Weekly Ext_Rates'!$H$182,'Weekly Ext_Rates'!$H$206,'Weekly Ext_Rates'!$H$233,'Weekly Ext_Rates'!$H$252,'Weekly Ext_Rates'!$H$276,'Weekly Ext_Rates'!$H$303,'Weekly Ext_Rates'!$H$322,'Weekly Ext_Rates'!$H$341,'Weekly Ext_Rates'!$H$409,'Weekly Ext_Rates'!$H$436,'Weekly Ext_Rates'!$H$463,'Weekly Ext_Rates'!$H$490,'Weekly Ext_Rates'!$H$517,'Weekly Ext_Rates'!$H$544,'Weekly Ext_Rates'!$H$571,'Weekly Ext_Rates'!$H$590,'Weekly Ext_Rates'!$H$601,'Weekly Ext_Rates'!$H$612,'Weekly Ext_Rates'!$H$623,'Weekly Ext_Rates'!$H$634,'Weekly Ext_Rates'!$H$644,'Weekly Ext_Rates'!$H$687,'Weekly Ext_Rates'!$H$698,'Weekly Ext_Rates'!$H$710,'Weekly Ext_Rates'!$H$722,'Weekly Ext_Rates'!$H$734,'Weekly Ext_Rates'!$H$746,'Weekly Ext_Rates'!$H$758,'Weekly Ext_Rates'!$H$785,'Weekly Ext_Rates'!$H$813,'Weekly Ext_Rates'!$H$833,'Weekly Ext_Rates'!$H$853,'Weekly Ext_Rates'!$H$873)</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42226</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42233</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42240.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42249.332638888889</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42254.318749999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42261.307638888888</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42268.674305555556</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42275.4375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42279.405555555553</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42289.323611111111</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42296.406944444447</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42303.34097222222</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42310.34375</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42317.557638888888</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42324.413194444445</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42331.328472222223</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42338.523611111108</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42345.631944444445</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42352.319444444445</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42359.456250000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42366.652777777781</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42373.329861111109</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42380.368055555555</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42387.585416666669</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42394.638888888891</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42412.604166666664</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42416.525694444441</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42422.362500000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42431.484027777777</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42438.374305555553</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42443.363194444442</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42450.356944444444</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42457.697916666664</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>('records'!$B$2:$B$41)</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Weekly Ext_Rates'!$I$24,'Weekly Ext_Rates'!$I$43,'Weekly Ext_Rates'!$I$62,'Weekly Ext_Rates'!$I$81,'Weekly Ext_Rates'!$I$96,'Weekly Ext_Rates'!$I$115,'Weekly Ext_Rates'!$I$157,'Weekly Ext_Rates'!$I$182,'Weekly Ext_Rates'!$I$206,'Weekly Ext_Rates'!$I$233,'Weekly Ext_Rates'!$I$252,'Weekly Ext_Rates'!$I$276,'Weekly Ext_Rates'!$I$303,'Weekly Ext_Rates'!$I$322,'Weekly Ext_Rates'!$I$341,'Weekly Ext_Rates'!$I$409,'Weekly Ext_Rates'!$I$436,'Weekly Ext_Rates'!$I$463,'Weekly Ext_Rates'!$I$490,'Weekly Ext_Rates'!$I$517,'Weekly Ext_Rates'!$I$544,'Weekly Ext_Rates'!$I$571,'Weekly Ext_Rates'!$I$590,'Weekly Ext_Rates'!$I$601,'Weekly Ext_Rates'!$I$612,'Weekly Ext_Rates'!$I$623,'Weekly Ext_Rates'!$I$634,'Weekly Ext_Rates'!$I$644,'Weekly Ext_Rates'!$I$687,'Weekly Ext_Rates'!$I$698,'Weekly Ext_Rates'!$I$710,'Weekly Ext_Rates'!$I$722,'Weekly Ext_Rates'!$I$734,'Weekly Ext_Rates'!$I$746,'Weekly Ext_Rates'!$I$758,'Weekly Ext_Rates'!$I$785,'Weekly Ext_Rates'!$I$813,'Weekly Ext_Rates'!$I$833,'Weekly Ext_Rates'!$I$853,'Weekly Ext_Rates'!$I$873)</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>22273.999999999985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>133659.39999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>209343.39999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>274552.59999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>325636.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>382676.69999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>433876.79999999993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>561744.39999999991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>683563.99999999988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>767860.79999999981</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>915424.99999999988</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1039852.0999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1149129.7999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1213271.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1394150.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1599458</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1746999.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1840336.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1991095.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2138057.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2290935.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2423252.2999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2537878</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2651110</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2859099.5999999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3049391.0999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3235591.7999999993</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3394088.5999999996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3549209.9999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3731366.0999999996</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3906784.6999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3998587.5999999996</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4086870.1999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4088268.0999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4209841.3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4449039</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4569572.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4673767.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4846316.7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4955273.7</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>('records'!$D$2:$D$41)</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -73646,6 +73157,538 @@
         <x:v>1942572</x:v>
       </x:c>
     </x:row>
+    <x:row r="42">
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42169</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1.509375</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10754</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42176</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>15.4479166666667</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>55244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42183</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>14.6232638888889</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>139474</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42197</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4.94965277777778</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>167984</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42204</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10.1930555555556</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>241374</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42211</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10.0694444444444</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>299374</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42218</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4.22395833333333</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>323704</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42225</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10.6684027777778</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>385154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42232</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7.01041666666667</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>425534</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42239</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6.41840277777778</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>462504</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42246</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11.8194444444444</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>496544</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42253</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>12.796875</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>570254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42260</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>12.0520833333333</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>639674</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42267</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8.51041666666667</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>664184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42274</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8.00868055555556</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>710314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42281</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10.6979166666667</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>771934</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42288</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10.3472222222222</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>831534</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42295</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11.0954861111111</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>895444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42302</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11.8229166666667</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>963544</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42309</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10.3611111111111</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1023224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42316</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11.4409722222222</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1089124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42323</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21.6979166666667</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1214104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42330</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10.9270833333333</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1245574</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42337</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7.19444444444444</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1287014</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42344</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10.8333333333333</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1349414</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42351</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10.5538194444444</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1410204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42372</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9.44907407407407</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1410204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42379</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11.375</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1475724</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42386</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11.5972222222222</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1542524</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42393</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5.76909722222222</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1575754</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42407</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3.0516975308642</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1575754</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42414</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10.0138888888889</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1619014</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42421</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11.2222222222222</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1683654</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42428</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>28.7013888888889</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1848974</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42435</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11.9767361111111</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1917960</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42442</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>12.1203703703704</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1970320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42449</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10.224537037037</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2014490</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42456</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>12.4166666666667</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2050250</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>
--- a/OpenxmlConsoleApplication/bin/Debug/O&M_Copy.xlsx
+++ b/OpenxmlConsoleApplication/bin/Debug/O&M_Copy.xlsx
@@ -23,7 +23,7 @@
     <x:sheet name="Total Influent" sheetId="16" r:id="rId9"/>
     <x:sheet name="Weekly Inj_Rates" sheetId="8" r:id="rId10"/>
     <x:sheet name="Weekly Ext_Rates" sheetId="9" r:id="rId11"/>
-    <x:sheet name="records" sheetId="17" r:id="Rfe667684a1bf41fc"/>
+    <x:sheet name="records" sheetId="17" r:id="Rd8ccd8e64252468e"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'RAW Data_all'!$A$1:$D$770</x:definedName>
@@ -1918,7 +1918,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Injection</c:v>
+            <c:v>Influent</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1932,13 +1932,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>('records'!$B$42:$B$79)</c:f>
+              <c:f>('records'!$B$42:$B$81)</c:f>
               <c:numCache/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('records'!$C$42:$C$79)</c:f>
+              <c:f>('records'!$C$42:$C$81)</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1952,7 +1952,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Extraction</c:v>
+            <c:v>Effluent</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2657,7 +2657,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Injection</c:v>
+            <c:v>Influent</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2685,13 +2685,13 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('records'!$B$42:$B$79)</c:f>
+              <c:f>('records'!$B$42:$B$81)</c:f>
               <c:numCache/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('records'!$D$42:$D$79)</c:f>
+              <c:f>('records'!$D$42:$D$81)</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2706,7 +2706,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Extraction</c:v>
+            <c:v>Effluent</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -73523,6 +73523,34 @@
     </x:row>
     <x:row r="68">
       <x:c t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42358</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1410204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c s="5">
+        <x:v>42365</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1410204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c s="5">
@@ -73535,7 +73563,7 @@
         <x:v>1410204</x:v>
       </x:c>
     </x:row>
-    <x:row r="69">
+    <x:row r="71">
       <x:c t="n">
         <x:v>31</x:v>
       </x:c>
@@ -73549,7 +73577,7 @@
         <x:v>1475724</x:v>
       </x:c>
     </x:row>
-    <x:row r="70">
+    <x:row r="72">
       <x:c t="n">
         <x:v>32</x:v>
       </x:c>
@@ -73563,7 +73591,7 @@
         <x:v>1542524</x:v>
       </x:c>
     </x:row>
-    <x:row r="71">
+    <x:row r="73">
       <x:c t="n">
         <x:v>33</x:v>
       </x:c>
@@ -73577,7 +73605,7 @@
         <x:v>1575754</x:v>
       </x:c>
     </x:row>
-    <x:row r="72">
+    <x:row r="74">
       <x:c t="n">
         <x:v>35</x:v>
       </x:c>
@@ -73591,7 +73619,7 @@
         <x:v>1575754</x:v>
       </x:c>
     </x:row>
-    <x:row r="73">
+    <x:row r="75">
       <x:c t="n">
         <x:v>36</x:v>
       </x:c>
@@ -73605,7 +73633,7 @@
         <x:v>1619014</x:v>
       </x:c>
     </x:row>
-    <x:row r="74">
+    <x:row r="76">
       <x:c t="n">
         <x:v>37</x:v>
       </x:c>
@@ -73619,7 +73647,7 @@
         <x:v>1683654</x:v>
       </x:c>
     </x:row>
-    <x:row r="75">
+    <x:row r="77">
       <x:c t="n">
         <x:v>38</x:v>
       </x:c>
@@ -73633,7 +73661,7 @@
         <x:v>1848974</x:v>
       </x:c>
     </x:row>
-    <x:row r="76">
+    <x:row r="78">
       <x:c t="n">
         <x:v>39</x:v>
       </x:c>
@@ -73647,7 +73675,7 @@
         <x:v>1917960</x:v>
       </x:c>
     </x:row>
-    <x:row r="77">
+    <x:row r="79">
       <x:c t="n">
         <x:v>40</x:v>
       </x:c>
@@ -73661,7 +73689,7 @@
         <x:v>1970320</x:v>
       </x:c>
     </x:row>
-    <x:row r="78">
+    <x:row r="80">
       <x:c t="n">
         <x:v>41</x:v>
       </x:c>
@@ -73675,7 +73703,7 @@
         <x:v>2014490</x:v>
       </x:c>
     </x:row>
-    <x:row r="79">
+    <x:row r="81">
       <x:c t="n">
         <x:v>42</x:v>
       </x:c>

--- a/OpenxmlConsoleApplication/bin/Debug/O&M_Copy.xlsx
+++ b/OpenxmlConsoleApplication/bin/Debug/O&M_Copy.xlsx
@@ -15,8 +15,8 @@
     <x:sheet name="RAW Data_all" sheetId="2" r:id="rId1"/>
     <x:sheet name="WeeklyFlowRates" sheetId="3" r:id="rId2"/>
     <x:sheet name="SumVol" sheetId="4" r:id="rId3"/>
-    <x:sheet name="records" sheetId="5" r:id="R42cf51d157f64cc2"/>
-    <x:sheet name="stationReport" sheetId="6" r:id="R9316e4d9be4d441e"/>
+    <x:sheet name="records" sheetId="5" r:id="R73cb72d5be884f22"/>
+    <x:sheet name="stationReport" sheetId="6" r:id="R92f4c33a20a54470"/>
   </x:sheets>
   <x:externalReferences>
     <x:externalReference r:id="rId4"/>
@@ -1412,7 +1412,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('records'!$E$3:$E$42)</c:f>
+              <c:f>('records'!$G$3:$G$42)</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1446,7 +1446,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('records'!$E$43:$E$82)</c:f>
+              <c:f>('records'!$G$43:$G$82)</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -27550,7 +27550,7 @@
         <x:v>1.58094968821967</x:v>
       </x:c>
       <x:c r="H3" s="293" t="n">
-        <x:v>3.79985683607731</x:v>
+        <x:v>7.9335329286223</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -27867,7 +27867,7 @@
         <x:v>10.8869367465983</x:v>
       </x:c>
       <x:c r="H18" s="293" t="n">
-        <x:v>4.2151034980039</x:v>
+        <x:v>9.24385631173491</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -28142,7 +28142,7 @@
         <x:v>9.21208084898285</x:v>
       </x:c>
       <x:c r="H31" s="293" t="n">
-        <x:v>3.92580664721775</x:v>
+        <x:v>8.72714609836619</x:v>
       </x:c>
     </x:row>
     <x:row r="32">

--- a/OpenxmlConsoleApplication/bin/Debug/O&M_Copy.xlsx
+++ b/OpenxmlConsoleApplication/bin/Debug/O&M_Copy.xlsx
@@ -1,35 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpinkard\Documents\Visual Studio 2015\Projects\ExcelChartTool\OpenxmlConsoleApplication\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10020" activeTab="2"/>
-  </x:bookViews>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="RAW Data_all" sheetId="2" r:id="rId1"/>
-    <x:sheet name="WeeklyFlowRates" sheetId="3" r:id="rId2"/>
-    <x:sheet name="SumVol" sheetId="4" r:id="rId3"/>
-    <x:sheet name="records" sheetId="5" r:id="R393b1296bf5d4686"/>
-    <x:sheet name="stationReport" sheetId="6" r:id="R87148174ae1c445d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RAW Data_all" sheetId="1" r:id="rId1"/>
+    <x:sheet name="SumVol" sheetId="2" r:id="rId6"/>
+    <x:sheet name="WeeklyFlowRates" sheetId="3" r:id="rId7"/>
+    <x:sheet name="records" sheetId="4" r:id="R7adb4793aa6d43df"/>
+    <x:sheet name="stationReport" sheetId="5" r:id="Radd265d7e1774f68"/>
   </x:sheets>
-  <x:externalReferences>
-    <x:externalReference r:id="rId4"/>
-  </x:externalReferences>
-  <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RAW Data_all'!$A$1:$D$770</x:definedName>
-  </x:definedNames>
-  <x:calcPr calcId="152511"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
 </x:workbook>
 </file>
 
@@ -1367,7 +1345,477 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:chartsheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:tabColor rgb="FFFFFF00"/>
+  </x:sheetPr>
+  <x:sheetViews>
+    <x:sheetView zoomScale="122" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup orientation="landscape" r:id="rId1"/>
+  <x:drawing r:id="rId2"/>
+</x:chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:chartsheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:tabColor rgb="FFFFFF00"/>
+  </x:sheetPr>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup orientation="landscape" r:id="rId1"/>
+  <x:drawing r:id="rId2"/>
+</x:chartsheet>
+</file>
+
+<file path=xl/drawings/charts/chart.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Influent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('records'!$D$3:$D$42)</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('records'!$F$3:$F$42)</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" val="{00000000-69C2-4AF4-909A-A162B281BE51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effluent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('records'!$D$43:$D$82)</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('records'!$F$43:$F$82)</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" val="{00000001-69C2-4AF4-909A-A162B281BE51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="503049568"/>
+        <c:axId val="572329536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="503049568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42461"/>
+          <c:min val="42170"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572329536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="572329536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumulative Volume (Gallon)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503049568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1418,7 +1866,7 @@
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5AC9-435B-A402-5E3C89F8E9A8}"/>
+              <c16:uniqueId xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" val="{00000000-5AC9-435B-A402-5E3C89F8E9A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1452,7 +1900,7 @@
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5AC9-435B-A402-5E3C89F8E9A8}"/>
+              <c16:uniqueId xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" val="{00000001-5AC9-435B-A402-5E3C89F8E9A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1466,8 +1914,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="252221360"/>
-        <c:axId val="252222928"/>
+        <c:axId val="458742528"/>
+        <c:axId val="458741744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1494,7 +1942,7 @@
             <c:numRef>
               <c:f>([1]Summary!$B$12,[1]Summary!$B$13,[1]Summary!$B$14,[1]Summary!$B$15,[1]Summary!$B$16,[1]Summary!$B$17,[1]Summary!$B$18,[1]Summary!$B$19,[1]Summary!$B$20,[1]Summary!$B$21,[1]Summary!$B$22,[1]Summary!$B$23,[1]Summary!$B$24,[1]Summary!$B$25,[1]Summary!$B$26,[1]Summary!$B$27,[1]Summary!$B$28,[1]Summary!$B$29,[1]Summary!$B$30,[1]Summary!$B$31,[1]Summary!$B$32,[1]Summary!$B$33,[1]Summary!$B$34,[1]Summary!$B$35,[1]Summary!$B$36,[1]Summary!$B$37,[1]Summary!$B$38,[1]Summary!$B$39,[1]Summary!$B$40,[1]Summary!$B$41,[1]Summary!$B$42,[1]Summary!$B$43,[1]Summary!$B$44,[1]Summary!$B$45,[1]Summary!$B$46,[1]Summary!$B$47,[1]Summary!$B$48,[1]Summary!$B$49,[1]Summary!$B$50,[1]Summary!$B$51)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>42170</c:v>
@@ -1541,79 +1989,79 @@
                 <c:pt idx="14">
                   <c:v>42275</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42279.642361111109</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42289.361805555556</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42296.554166666669</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42303.370138888888</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42310.397222222222</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42317.643055555556</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42324.479166666664</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42331.404861111114</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42338.544444444444</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42345.614583333336</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42352.366666666669</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42359.385416666664</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42366.541666666664</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42373.343055555553</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42380.372916666667</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42387.590277777781</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42394.630555555559</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42412.60833333333</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42416.474999999999</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42422.419444444444</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42429.363888888889</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42436.354166666664</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42443.369444444441</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42450.362500000003</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" formatCode="[$-409]d\-mmm\-yy;@">
                   <c:v>42457.690972222219</c:v>
                 </c:pt>
               </c:numCache>
@@ -1751,7 +2199,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5AC9-435B-A402-5E3C89F8E9A8}"/>
+              <c16:uniqueId xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" val="{00000002-5AC9-435B-A402-5E3C89F8E9A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1765,11 +2213,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="252221360"/>
-        <c:axId val="252222928"/>
+        <c:axId val="458742528"/>
+        <c:axId val="458741744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="252221360"/>
+        <c:axId val="458742528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,6 +2249,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1867,7 +2316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252222928"/>
+        <c:crossAx val="458741744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +2324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252222928"/>
+        <c:axId val="458741744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,6 +2375,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1955,7 +2405,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1986,7 +2436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252221360"/>
+        <c:crossAx val="458742528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2046,6 +2496,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2107,1027 +2558,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Influent</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('records'!$D$3:$D$42)</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('records'!$F$3:$F$42)</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-69C2-4AF4-909A-A162B281BE51}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Effluent</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('records'!$D$43:$D$82)</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('records'!$F$43:$F$82)</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-69C2-4AF4-909A-A162B281BE51}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>RPW 6/7</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>([1]WeeklyRPWs!$G$10,[1]WeeklyRPWs!$G$21,[1]WeeklyRPWs!$G$32,[1]WeeklyRPWs!$G$43,[1]WeeklyRPWs!$G$52,[1]WeeklyRPWs!$G$61,[1]WeeklyRPWs!$G$68,[1]WeeklyRPWs!$G$79,[1]WeeklyRPWs!$G$88,[1]WeeklyRPWs!$G$97,[1]WeeklyRPWs!$G$104,[1]WeeklyRPWs!$G$113,[1]WeeklyRPWs!$G$122,[1]WeeklyRPWs!$G$129,[1]WeeklyRPWs!$G$136,[1]WeeklyRPWs!$G$157,[1]WeeklyRPWs!$G$166,[1]WeeklyRPWs!$G$173,[1]WeeklyRPWs!$G$182,[1]WeeklyRPWs!$G$191,[1]WeeklyRPWs!$G$200,[1]WeeklyRPWs!$G$209,[1]WeeklyRPWs!$G$216,[1]WeeklyRPWs!$G$223,[1]WeeklyRPWs!$G$232,[1]WeeklyRPWs!$G$241,[1]WeeklyRPWs!$G$258,[1]WeeklyRPWs!$G$268,[1]WeeklyRPWs!$G$278,[1]WeeklyRPWs!$G$288,[1]WeeklyRPWs!$G$294,[1]WeeklyRPWs!$G$302,[1]WeeklyRPWs!$G$312,[1]WeeklyRPWs!$G$322,[1]WeeklyRPWs!$G$332,[1]WeeklyRPWs!$G$340,[1]WeeklyRPWs!$G$348,[1]WeeklyRPWs!$G$356)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42226</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42233.436111111114</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42240.6875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42249.31527777778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42254.331944444442</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42261.342361111114</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42268.709027777775</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42275.489583333336</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42279.601388888892</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42289.349305555559</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42296.37222222222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42303.387499999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42310.365972222222</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42317.583333333336</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42324.590277777781</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42331.384722222225</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42338.54791666667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42345.605555555558</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42352.347916666666</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42373.241666666669</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42380.39166666667</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42387.598611111112</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42394.64166666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42412.586805555555</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42419.380555555559</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42426.347222222219</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42433.659722222219</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42440.338888888888</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42446.364583333336</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42453.664583333331</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42459.40625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>([1]WeeklyRPWs!$H$10,[1]WeeklyRPWs!$H$21,[1]WeeklyRPWs!$H$32,[1]WeeklyRPWs!$H$43,[1]WeeklyRPWs!$H$52,[1]WeeklyRPWs!$H$61,[1]WeeklyRPWs!$H$68,[1]WeeklyRPWs!$H$79,[1]WeeklyRPWs!$H$88,[1]WeeklyRPWs!$H$97,[1]WeeklyRPWs!$H$104,[1]WeeklyRPWs!$H$113,[1]WeeklyRPWs!$H$122,[1]WeeklyRPWs!$H$129,[1]WeeklyRPWs!$H$136,[1]WeeklyRPWs!$H$157,[1]WeeklyRPWs!$H$166,[1]WeeklyRPWs!$H$173,[1]WeeklyRPWs!$H$182,[1]WeeklyRPWs!$H$191,[1]WeeklyRPWs!$H$200,[1]WeeklyRPWs!$H$209,[1]WeeklyRPWs!$H$216,[1]WeeklyRPWs!$H$223,[1]WeeklyRPWs!$H$232,[1]WeeklyRPWs!$H$241,[1]WeeklyRPWs!$H$258,[1]WeeklyRPWs!$H$268,[1]WeeklyRPWs!$H$278,[1]WeeklyRPWs!$H$288,[1]WeeklyRPWs!$H$294,[1]WeeklyRPWs!$H$302,[1]WeeklyRPWs!$H$312,[1]WeeklyRPWs!$H$322,[1]WeeklyRPWs!$H$332,[1]WeeklyRPWs!$H$340,[1]WeeklyRPWs!$H$348,[1]WeeklyRPWs!$H$356)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>10754</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120284</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>204514</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>277014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>350404</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>454764</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>481214</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>577804</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>679164</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>716134</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>799024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>926324</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1038664</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1119664</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1219084</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1357674</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1463894</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1573164</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1687924</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1751584</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1835834</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1907644</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1966244</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2065194</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2167604</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2270344</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2495294</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2652594</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2771274</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2850884</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2896754</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2941344</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3049034</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3257274</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3271640</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3376094</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3477554</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3565634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-69C2-4AF4-909A-A162B281BE51}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>RPW 3</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>([1]WeeklyRPWs!$G$376,[1]WeeklyRPWs!$G$383,[1]WeeklyRPWs!$G$390,[1]WeeklyRPWs!$G$397,[1]WeeklyRPWs!$G$403,[1]WeeklyRPWs!$G$410,[1]WeeklyRPWs!$G$417,[1]WeeklyRPWs!$G$424,[1]WeeklyRPWs!$G$430,[1]WeeklyRPWs!$G$436,[1]WeeklyRPWs!$G$441,[1]WeeklyRPWs!$G$447,[1]WeeklyRPWs!$G$453,[1]WeeklyRPWs!$G$458,[1]WeeklyRPWs!$G$463,[1]WeeklyRPWs!$G$475,[1]WeeklyRPWs!$G$481,[1]WeeklyRPWs!$G$486,[1]WeeklyRPWs!$G$492,[1]WeeklyRPWs!$G$497,[1]WeeklyRPWs!$G$503,[1]WeeklyRPWs!$G$509,[1]WeeklyRPWs!$G$514,[1]WeeklyRPWs!$G$519,[1]WeeklyRPWs!$G$526,[1]WeeklyRPWs!$G$532,[1]WeeklyRPWs!$G$537,[1]WeeklyRPWs!$G$542,[1]WeeklyRPWs!$G$553,[1]WeeklyRPWs!$G$560,[1]WeeklyRPWs!$G$566,[1]WeeklyRPWs!$G$573,[1]WeeklyRPWs!$G$578,[1]WeeklyRPWs!$G$584,[1]WeeklyRPWs!$G$591,[1]WeeklyRPWs!$G$598,[1]WeeklyRPWs!$G$605,[1]WeeklyRPWs!$G$611,[1]WeeklyRPWs!$G$617,[1]WeeklyRPWs!$G$623)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42226</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42233.417361111111</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42240.6875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42249.329861111109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42254.357638888891</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42261.355555555558</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42268.652777777781</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42275.429166666669</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42279.642361111109</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42289.361805555556</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42296.554166666669</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42303.370138888888</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42310.397222222222</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42317.643055555556</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42324.479166666664</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42331.404861111114</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42338.544444444444</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42345.614583333336</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42352.366666666669</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42359.385416666664</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42366.541666666664</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42375.459027777775</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42382.393750000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42387.613888888889</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42396.6875</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42412.620138888888</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42419.390277777777</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42426.379166666666</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42433.636805555558</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42440.352083333331</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42446.476388888892</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42453.62222222222</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42459.449305555558</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>([1]WeeklyRPWs!$H$376,[1]WeeklyRPWs!$H$383,[1]WeeklyRPWs!$H$390,[1]WeeklyRPWs!$H$397,[1]WeeklyRPWs!$H$403,[1]WeeklyRPWs!$H$410,[1]WeeklyRPWs!$H$417,[1]WeeklyRPWs!$H$424,[1]WeeklyRPWs!$H$430,[1]WeeklyRPWs!$H$436,[1]WeeklyRPWs!$H$441,[1]WeeklyRPWs!$H$447,[1]WeeklyRPWs!$H$453,[1]WeeklyRPWs!$H$458,[1]WeeklyRPWs!$H$463,[1]WeeklyRPWs!$H$475,[1]WeeklyRPWs!$H$481,[1]WeeklyRPWs!$H$486,[1]WeeklyRPWs!$H$492,[1]WeeklyRPWs!$H$497,[1]WeeklyRPWs!$H$503,[1]WeeklyRPWs!$H$509,[1]WeeklyRPWs!$H$514,[1]WeeklyRPWs!$H$519,[1]WeeklyRPWs!$H$526,[1]WeeklyRPWs!$H$532,[1]WeeklyRPWs!$H$537,[1]WeeklyRPWs!$H$542,[1]WeeklyRPWs!$H$553,[1]WeeklyRPWs!$H$560,[1]WeeklyRPWs!$H$566,[1]WeeklyRPWs!$H$573,[1]WeeklyRPWs!$H$578,[1]WeeklyRPWs!$H$584,[1]WeeklyRPWs!$H$591,[1]WeeklyRPWs!$H$598,[1]WeeklyRPWs!$H$605,[1]WeeklyRPWs!$H$611,[1]WeeklyRPWs!$H$617,[1]WeeklyRPWs!$H$623)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>14450</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>109190</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>171280</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>224040</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>262460</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>312730</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>348150</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>433230</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>535270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>602680</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>725250</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>826190</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>916100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>966410</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1111920</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1270930</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1377930</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1446550</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1570210</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1645810</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1781150</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1873580</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1958100</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2130380</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2274240</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2400870</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2494300</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2594770</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2768390</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2866120</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2964770</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3021042</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3038380</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3080210</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3190010</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3310430</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3426840</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3529310</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3644870</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3719350</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-69C2-4AF4-909A-A162B281BE51}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="252222144"/>
-        <c:axId val="252224496"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="252222144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="42461"/>
-          <c:min val="42170"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Date</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="252224496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="252224496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cumulative Volume (Gallon)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="252222144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/charts/colors.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3167,7 +2598,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3207,510 +2638,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/charts/style.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4226,36 +3154,538 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
+<file path=xl/drawings/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
+<file path=xl/drawings/drawing.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8666189" cy="6292746"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8667750" cy="6296025"/>
@@ -4281,35 +3711,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666189" cy="6292746"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<file path=xl/drawings/drawings/drawing.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.71179</cdr:x>
@@ -4365,2137 +3768,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Summary"/>
-      <sheetName val="WeeklyFlowRates"/>
-      <sheetName val="SumVol"/>
-      <sheetName val="RAW Data_all"/>
-      <sheetName val="WeeklyRPWs"/>
-      <sheetName val="RPW-03_Effluent"/>
-      <sheetName val="RPW-06"/>
-      <sheetName val="RPW-07"/>
-      <sheetName val="Total Influent"/>
-      <sheetName val="Weekly Inj_Rates"/>
-      <sheetName val="Weekly Ext_Rates"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="12">
-          <cell r="B12">
-            <v>42170</v>
-          </cell>
-          <cell r="C12">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>42177</v>
-          </cell>
-          <cell r="C13">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>42184</v>
-          </cell>
-          <cell r="C14">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>42198</v>
-          </cell>
-          <cell r="C15">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>42205</v>
-          </cell>
-          <cell r="C16">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>42212</v>
-          </cell>
-          <cell r="C17">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>42219</v>
-          </cell>
-          <cell r="C18">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>42226</v>
-          </cell>
-          <cell r="C19">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>42233</v>
-          </cell>
-          <cell r="C20">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>42240</v>
-          </cell>
-          <cell r="C21">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>42249</v>
-          </cell>
-          <cell r="C22">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>42254</v>
-          </cell>
-          <cell r="C23">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>42261</v>
-          </cell>
-          <cell r="C24">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>42268</v>
-          </cell>
-          <cell r="C25">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>42275</v>
-          </cell>
-          <cell r="C26">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>42279.642361111109</v>
-          </cell>
-          <cell r="C27">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>42289.361805555556</v>
-          </cell>
-          <cell r="C28">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>42296.554166666669</v>
-          </cell>
-          <cell r="C29">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>42303.370138888888</v>
-          </cell>
-          <cell r="C30">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>42310.397222222222</v>
-          </cell>
-          <cell r="C31">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>42317.643055555556</v>
-          </cell>
-          <cell r="C32">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>42324.479166666664</v>
-          </cell>
-          <cell r="C33">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>42331.404861111114</v>
-          </cell>
-          <cell r="C34">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>42338.544444444444</v>
-          </cell>
-          <cell r="C35">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>42345.614583333336</v>
-          </cell>
-          <cell r="C36">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>42352.366666666669</v>
-          </cell>
-          <cell r="C37">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>42359.385416666664</v>
-          </cell>
-          <cell r="C38">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>42366.541666666664</v>
-          </cell>
-          <cell r="C39">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>42373.343055555553</v>
-          </cell>
-          <cell r="C40">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>42380.372916666667</v>
-          </cell>
-          <cell r="C41">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>42387.590277777781</v>
-          </cell>
-          <cell r="C42">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>42394.630555555559</v>
-          </cell>
-          <cell r="C43">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>42412.60833333333</v>
-          </cell>
-          <cell r="C44">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>42416.474999999999</v>
-          </cell>
-          <cell r="C45">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>42422.419444444444</v>
-          </cell>
-          <cell r="C46">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>42429.363888888889</v>
-          </cell>
-          <cell r="C47">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>42436.354166666664</v>
-          </cell>
-          <cell r="C48">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>42443.369444444441</v>
-          </cell>
-          <cell r="C49">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>42450.362500000003</v>
-          </cell>
-          <cell r="C50">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>42457.690972222219</v>
-          </cell>
-          <cell r="C51">
-            <v>28.3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="10">
-          <cell r="G10">
-            <v>42170</v>
-          </cell>
-          <cell r="H10">
-            <v>10754</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="G21">
-            <v>42177</v>
-          </cell>
-          <cell r="H21">
-            <v>120284</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="G32">
-            <v>42184</v>
-          </cell>
-          <cell r="H32">
-            <v>204514</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="G43">
-            <v>42198</v>
-          </cell>
-          <cell r="H43">
-            <v>277014</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="G52">
-            <v>42205</v>
-          </cell>
-          <cell r="H52">
-            <v>350404</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="G61">
-            <v>42212</v>
-          </cell>
-          <cell r="H61">
-            <v>454764</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="G68">
-            <v>42219</v>
-          </cell>
-          <cell r="H68">
-            <v>481214</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="G79">
-            <v>42226</v>
-          </cell>
-          <cell r="H79">
-            <v>577804</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="G88">
-            <v>42233.436111111114</v>
-          </cell>
-          <cell r="H88">
-            <v>679164</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="G97">
-            <v>42240.6875</v>
-          </cell>
-          <cell r="H97">
-            <v>716134</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="G104">
-            <v>42249.31527777778</v>
-          </cell>
-          <cell r="H104">
-            <v>799024</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="G113">
-            <v>42254.331944444442</v>
-          </cell>
-          <cell r="H113">
-            <v>926324</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="G122">
-            <v>42261.342361111114</v>
-          </cell>
-          <cell r="H122">
-            <v>1038664</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="G129">
-            <v>42268.709027777775</v>
-          </cell>
-          <cell r="H129">
-            <v>1119664</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="G136">
-            <v>42275.489583333336</v>
-          </cell>
-          <cell r="H136">
-            <v>1219084</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="G157">
-            <v>42279.601388888892</v>
-          </cell>
-          <cell r="H157">
-            <v>1357674</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="G166">
-            <v>42289.349305555559</v>
-          </cell>
-          <cell r="H166">
-            <v>1463894</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="G173">
-            <v>42296.37222222222</v>
-          </cell>
-          <cell r="H173">
-            <v>1573164</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="G182">
-            <v>42303.387499999997</v>
-          </cell>
-          <cell r="H182">
-            <v>1687924</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="G191">
-            <v>42310.365972222222</v>
-          </cell>
-          <cell r="H191">
-            <v>1751584</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="G200">
-            <v>42317.583333333336</v>
-          </cell>
-          <cell r="H200">
-            <v>1835834</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="G209">
-            <v>42324.590277777781</v>
-          </cell>
-          <cell r="H209">
-            <v>1907644</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="G216">
-            <v>42331.384722222225</v>
-          </cell>
-          <cell r="H216">
-            <v>1966244</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="G223">
-            <v>42338.54791666667</v>
-          </cell>
-          <cell r="H223">
-            <v>2065194</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="G232">
-            <v>42345.605555555558</v>
-          </cell>
-          <cell r="H232">
-            <v>2167604</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="G241">
-            <v>42352.347916666666</v>
-          </cell>
-          <cell r="H241">
-            <v>2270344</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="G258">
-            <v>42373.241666666669</v>
-          </cell>
-          <cell r="H258">
-            <v>2495294</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="G268">
-            <v>42380.39166666667</v>
-          </cell>
-          <cell r="H268">
-            <v>2652594</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="G278">
-            <v>42387.598611111112</v>
-          </cell>
-          <cell r="H278">
-            <v>2771274</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="G288">
-            <v>42394.64166666667</v>
-          </cell>
-          <cell r="H288">
-            <v>2850884</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="G294">
-            <v>42412.586805555555</v>
-          </cell>
-          <cell r="H294">
-            <v>2896754</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="G302">
-            <v>42419.380555555559</v>
-          </cell>
-          <cell r="H302">
-            <v>2941344</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="G312">
-            <v>42426.347222222219</v>
-          </cell>
-          <cell r="H312">
-            <v>3049034</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="G322">
-            <v>42433.659722222219</v>
-          </cell>
-          <cell r="H322">
-            <v>3257274</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="G332">
-            <v>42440.338888888888</v>
-          </cell>
-          <cell r="H332">
-            <v>3271640</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="G340">
-            <v>42446.364583333336</v>
-          </cell>
-          <cell r="H340">
-            <v>3376094</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="G348">
-            <v>42453.664583333331</v>
-          </cell>
-          <cell r="H348">
-            <v>3477554</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="G356">
-            <v>42459.40625</v>
-          </cell>
-          <cell r="H356">
-            <v>3565634</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="G376">
-            <v>42170</v>
-          </cell>
-          <cell r="H376">
-            <v>14450</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="G383">
-            <v>42177</v>
-          </cell>
-          <cell r="H383">
-            <v>109190</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="G390">
-            <v>42184</v>
-          </cell>
-          <cell r="H390">
-            <v>171280</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="G397">
-            <v>42198</v>
-          </cell>
-          <cell r="H397">
-            <v>224040</v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="G403">
-            <v>42205</v>
-          </cell>
-          <cell r="H403">
-            <v>262460</v>
-          </cell>
-        </row>
-        <row r="410">
-          <cell r="G410">
-            <v>42212</v>
-          </cell>
-          <cell r="H410">
-            <v>312730</v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="G417">
-            <v>42219</v>
-          </cell>
-          <cell r="H417">
-            <v>348150</v>
-          </cell>
-        </row>
-        <row r="424">
-          <cell r="G424">
-            <v>42226</v>
-          </cell>
-          <cell r="H424">
-            <v>433230</v>
-          </cell>
-        </row>
-        <row r="430">
-          <cell r="G430">
-            <v>42233.417361111111</v>
-          </cell>
-          <cell r="H430">
-            <v>535270</v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="G436">
-            <v>42240.6875</v>
-          </cell>
-          <cell r="H436">
-            <v>602680</v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="G441">
-            <v>42249.329861111109</v>
-          </cell>
-          <cell r="H441">
-            <v>725250</v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="G447">
-            <v>42254.357638888891</v>
-          </cell>
-          <cell r="H447">
-            <v>826190</v>
-          </cell>
-        </row>
-        <row r="453">
-          <cell r="G453">
-            <v>42261.355555555558</v>
-          </cell>
-          <cell r="H453">
-            <v>916100</v>
-          </cell>
-        </row>
-        <row r="458">
-          <cell r="G458">
-            <v>42268.652777777781</v>
-          </cell>
-          <cell r="H458">
-            <v>966410</v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="G463">
-            <v>42275.429166666669</v>
-          </cell>
-          <cell r="H463">
-            <v>1111920</v>
-          </cell>
-        </row>
-        <row r="475">
-          <cell r="G475">
-            <v>42279.642361111109</v>
-          </cell>
-          <cell r="H475">
-            <v>1270930</v>
-          </cell>
-        </row>
-        <row r="481">
-          <cell r="G481">
-            <v>42289.361805555556</v>
-          </cell>
-          <cell r="H481">
-            <v>1377930</v>
-          </cell>
-        </row>
-        <row r="486">
-          <cell r="G486">
-            <v>42296.554166666669</v>
-          </cell>
-          <cell r="H486">
-            <v>1446550</v>
-          </cell>
-        </row>
-        <row r="492">
-          <cell r="G492">
-            <v>42303.370138888888</v>
-          </cell>
-          <cell r="H492">
-            <v>1570210</v>
-          </cell>
-        </row>
-        <row r="497">
-          <cell r="G497">
-            <v>42310.397222222222</v>
-          </cell>
-          <cell r="H497">
-            <v>1645810</v>
-          </cell>
-        </row>
-        <row r="503">
-          <cell r="G503">
-            <v>42317.643055555556</v>
-          </cell>
-          <cell r="H503">
-            <v>1781150</v>
-          </cell>
-        </row>
-        <row r="509">
-          <cell r="G509">
-            <v>42324.479166666664</v>
-          </cell>
-          <cell r="H509">
-            <v>1873580</v>
-          </cell>
-        </row>
-        <row r="514">
-          <cell r="G514">
-            <v>42331.404861111114</v>
-          </cell>
-          <cell r="H514">
-            <v>1958100</v>
-          </cell>
-        </row>
-        <row r="519">
-          <cell r="G519">
-            <v>42338.544444444444</v>
-          </cell>
-          <cell r="H519">
-            <v>2130380</v>
-          </cell>
-        </row>
-        <row r="526">
-          <cell r="G526">
-            <v>42345.614583333336</v>
-          </cell>
-          <cell r="H526">
-            <v>2274240</v>
-          </cell>
-        </row>
-        <row r="532">
-          <cell r="G532">
-            <v>42352.366666666669</v>
-          </cell>
-          <cell r="H532">
-            <v>2400870</v>
-          </cell>
-        </row>
-        <row r="537">
-          <cell r="G537">
-            <v>42359.385416666664</v>
-          </cell>
-          <cell r="H537">
-            <v>2494300</v>
-          </cell>
-        </row>
-        <row r="542">
-          <cell r="G542">
-            <v>42366.541666666664</v>
-          </cell>
-          <cell r="H542">
-            <v>2594770</v>
-          </cell>
-        </row>
-        <row r="553">
-          <cell r="G553">
-            <v>42375.459027777775</v>
-          </cell>
-          <cell r="H553">
-            <v>2768390</v>
-          </cell>
-        </row>
-        <row r="560">
-          <cell r="G560">
-            <v>42382.393750000003</v>
-          </cell>
-          <cell r="H560">
-            <v>2866120</v>
-          </cell>
-        </row>
-        <row r="566">
-          <cell r="G566">
-            <v>42387.613888888889</v>
-          </cell>
-          <cell r="H566">
-            <v>2964770</v>
-          </cell>
-        </row>
-        <row r="573">
-          <cell r="G573">
-            <v>42396.6875</v>
-          </cell>
-          <cell r="H573">
-            <v>3021042</v>
-          </cell>
-        </row>
-        <row r="578">
-          <cell r="G578">
-            <v>42412.620138888888</v>
-          </cell>
-          <cell r="H578">
-            <v>3038380</v>
-          </cell>
-        </row>
-        <row r="584">
-          <cell r="G584">
-            <v>42419.390277777777</v>
-          </cell>
-          <cell r="H584">
-            <v>3080210</v>
-          </cell>
-        </row>
-        <row r="591">
-          <cell r="G591">
-            <v>42426.379166666666</v>
-          </cell>
-          <cell r="H591">
-            <v>3190010</v>
-          </cell>
-        </row>
-        <row r="598">
-          <cell r="G598">
-            <v>42433.636805555558</v>
-          </cell>
-          <cell r="H598">
-            <v>3310430</v>
-          </cell>
-        </row>
-        <row r="605">
-          <cell r="G605">
-            <v>42440.352083333331</v>
-          </cell>
-          <cell r="H605">
-            <v>3426840</v>
-          </cell>
-        </row>
-        <row r="611">
-          <cell r="G611">
-            <v>42446.476388888892</v>
-          </cell>
-          <cell r="H611">
-            <v>3529310</v>
-          </cell>
-        </row>
-        <row r="617">
-          <cell r="G617">
-            <v>42453.62222222222</v>
-          </cell>
-          <cell r="H617">
-            <v>3644870</v>
-          </cell>
-        </row>
-        <row r="623">
-          <cell r="G623">
-            <v>42459.449305555558</v>
-          </cell>
-          <cell r="H623">
-            <v>3719350</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="15">
-          <cell r="F15">
-            <v>2.7821275199704827</v>
-          </cell>
-          <cell r="H15">
-            <v>42170</v>
-          </cell>
-          <cell r="I15">
-            <v>18895</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>8.2738590871807975</v>
-          </cell>
-          <cell r="H34">
-            <v>42177</v>
-          </cell>
-          <cell r="I34">
-            <v>118955</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="F53">
-            <v>15.010187636507489</v>
-          </cell>
-          <cell r="H53">
-            <v>42184</v>
-          </cell>
-          <cell r="I53">
-            <v>201955</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="F76">
-            <v>2.8873844598842138</v>
-          </cell>
-          <cell r="H76">
-            <v>42198</v>
-          </cell>
-          <cell r="I76">
-            <v>272675</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="F91">
-            <v>11.170580026137818</v>
-          </cell>
-          <cell r="H91">
-            <v>42205</v>
-          </cell>
-          <cell r="I91">
-            <v>349645</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="F106">
-            <v>10.179576465248022</v>
-          </cell>
-          <cell r="H106">
-            <v>42212</v>
-          </cell>
-          <cell r="I106">
-            <v>453365</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="F129">
-            <v>2.9035226872961455</v>
-          </cell>
-          <cell r="H129">
-            <v>42219</v>
-          </cell>
-          <cell r="I129">
-            <v>485955</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="F144">
-            <v>9.6505406439582639</v>
-          </cell>
-          <cell r="H144">
-            <v>42226</v>
-          </cell>
-          <cell r="I144">
-            <v>570945</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="F159">
-            <v>10.04225189703266</v>
-          </cell>
-          <cell r="H159">
-            <v>42233</v>
-          </cell>
-          <cell r="I159">
-            <v>672555</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="H173">
-            <v>42240.697916666664</v>
-          </cell>
-          <cell r="I173">
-            <v>710025</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="F174">
-            <v>3.7651240421730465</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="H184">
-            <v>42249.337500000001</v>
-          </cell>
-          <cell r="I184">
-            <v>790185</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="F185">
-            <v>7.9878114225998189</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="H199">
-            <v>42254.347222222219</v>
-          </cell>
-          <cell r="I199">
-            <v>916475</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="F200">
-            <v>12.573319233362334</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="H214">
-            <v>42261.321527777778</v>
-          </cell>
-          <cell r="I214">
-            <v>1029415</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="F215">
-            <v>10.800192189557835</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="H225">
-            <v>42268.665972222225</v>
-          </cell>
-          <cell r="I225">
-            <v>1107135</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="F226">
-            <v>11.112383850729181</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="H236">
-            <v>42275.436111111114</v>
-          </cell>
-          <cell r="I236">
-            <v>1205955</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="F237">
-            <v>9.9515304791015975</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="F273">
-            <v>10.470052459141662</v>
-          </cell>
-          <cell r="H273">
-            <v>42279.411805555559</v>
-          </cell>
-          <cell r="I273">
-            <v>1341495</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="F288">
-            <v>10.417876492873519</v>
-          </cell>
-          <cell r="H288">
-            <v>42289.338888888888</v>
-          </cell>
-          <cell r="I288">
-            <v>1446325</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="F299">
-            <v>10.021841692803909</v>
-          </cell>
-          <cell r="H299">
-            <v>42296.396527777775</v>
-          </cell>
-          <cell r="I299">
-            <v>1552615</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="F314">
-            <v>11.281883257078803</v>
-          </cell>
-          <cell r="H314">
-            <v>42303.357638888891</v>
-          </cell>
-          <cell r="I314">
-            <v>1664195</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="F329">
-            <v>6.2454895291370374</v>
-          </cell>
-          <cell r="H329">
-            <v>42310.379861111112</v>
-          </cell>
-          <cell r="I329">
-            <v>1725585</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="F344">
-            <v>8.2552420037894336</v>
-          </cell>
-          <cell r="H344">
-            <v>42317.574999999997</v>
-          </cell>
-          <cell r="I344">
-            <v>1807945</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="F359">
-            <v>6.8309586186339732</v>
-          </cell>
-          <cell r="H359">
-            <v>42324.416666666664</v>
-          </cell>
-          <cell r="I359">
-            <v>1877449</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="F370">
-            <v>8.3609436559622345</v>
-          </cell>
-          <cell r="H370">
-            <v>42331.348611111112</v>
-          </cell>
-          <cell r="I370">
-            <v>1936955</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="F381">
-            <v>7.2161212072577552</v>
-          </cell>
-          <cell r="H381">
-            <v>42338.527777777781</v>
-          </cell>
-          <cell r="I381">
-            <v>2033055</v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="F396">
-            <v>10.017457407124313</v>
-          </cell>
-          <cell r="H396">
-            <v>42345.645833333336</v>
-          </cell>
-          <cell r="I396">
-            <v>2132725</v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="F411">
-            <v>10.329247811635588</v>
-          </cell>
-          <cell r="H411">
-            <v>42352.334027777775</v>
-          </cell>
-          <cell r="I411">
-            <v>2234575</v>
-          </cell>
-        </row>
-        <row r="422">
-          <cell r="F422">
-            <v>9.6209627059695375</v>
-          </cell>
-          <cell r="H422">
-            <v>42359.444444444445</v>
-          </cell>
-          <cell r="I422">
-            <v>2308695</v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="F433">
-            <v>8.6400200693113618</v>
-          </cell>
-          <cell r="H433">
-            <v>42366.636805555558</v>
-          </cell>
-          <cell r="I433">
-            <v>2392805</v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="F457">
-            <v>8.7465973406725475</v>
-          </cell>
-          <cell r="H457">
-            <v>42373.343055555553</v>
-          </cell>
-          <cell r="I457">
-            <v>2454705</v>
-          </cell>
-        </row>
-        <row r="474">
-          <cell r="F474">
-            <v>7.8992782515202009</v>
-          </cell>
-          <cell r="H474">
-            <v>42380.372916666667</v>
-          </cell>
-          <cell r="I474">
-            <v>2608035</v>
-          </cell>
-        </row>
-        <row r="490">
-          <cell r="F490">
-            <v>9.6994729205628918</v>
-          </cell>
-          <cell r="H490">
-            <v>42387.590277777781</v>
-          </cell>
-          <cell r="I490">
-            <v>2723745</v>
-          </cell>
-        </row>
-        <row r="502">
-          <cell r="F502">
-            <v>7.9441916008219877</v>
-          </cell>
-          <cell r="H502">
-            <v>42394.630555555559</v>
-          </cell>
-          <cell r="I502">
-            <v>2802750</v>
-          </cell>
-        </row>
-        <row r="512">
-          <cell r="F512">
-            <v>1.9442490747946204</v>
-          </cell>
-          <cell r="H512">
-            <v>42412.60833333333</v>
-          </cell>
-          <cell r="I512">
-            <v>2842585</v>
-          </cell>
-        </row>
-        <row r="524">
-          <cell r="F524">
-            <v>5.0652264007660497</v>
-          </cell>
-          <cell r="H524">
-            <v>42416.474999999999</v>
-          </cell>
-          <cell r="I524">
-            <v>2891785</v>
-          </cell>
-        </row>
-        <row r="540">
-          <cell r="F540">
-            <v>8.6023794035489161</v>
-          </cell>
-          <cell r="H540">
-            <v>42422.419444444444</v>
-          </cell>
-          <cell r="I540">
-            <v>2997815</v>
-          </cell>
-        </row>
-        <row r="556">
-          <cell r="F556">
-            <v>8.5930296352042888</v>
-          </cell>
-          <cell r="H556">
-            <v>42429.363888888889</v>
-          </cell>
-          <cell r="I556">
-            <v>3104085</v>
-          </cell>
-        </row>
-        <row r="572">
-          <cell r="F572">
-            <v>9.7476274898294957</v>
-          </cell>
-          <cell r="H572">
-            <v>42436.354166666664</v>
-          </cell>
-          <cell r="I572">
-            <v>3215385</v>
-          </cell>
-        </row>
-        <row r="584">
-          <cell r="F584">
-            <v>11.642572161952504</v>
-          </cell>
-          <cell r="H584">
-            <v>42443.369444444441</v>
-          </cell>
-          <cell r="I584">
-            <v>3316365</v>
-          </cell>
-        </row>
-        <row r="596">
-          <cell r="F596">
-            <v>9.5059476906740557</v>
-          </cell>
-          <cell r="H596">
-            <v>42450.362500000003</v>
-          </cell>
-          <cell r="I596">
-            <v>3416375</v>
-          </cell>
-        </row>
-        <row r="608">
-          <cell r="F608">
-            <v>10.488972485560243</v>
-          </cell>
-          <cell r="H608">
-            <v>42457.690972222219</v>
-          </cell>
-          <cell r="I608">
-            <v>3502995</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="24">
-          <cell r="G24">
-            <v>3.2672697549804566</v>
-          </cell>
-          <cell r="H24">
-            <v>42170</v>
-          </cell>
-          <cell r="I24">
-            <v>22273.999999999985</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="G43">
-            <v>9.2263865620263061</v>
-          </cell>
-          <cell r="H43">
-            <v>42177</v>
-          </cell>
-          <cell r="I43">
-            <v>133659.39999999994</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="G62">
-            <v>13.681127982651793</v>
-          </cell>
-          <cell r="H62">
-            <v>42184</v>
-          </cell>
-          <cell r="I62">
-            <v>209343.39999999997</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="G81">
-            <v>2.6592960182840635</v>
-          </cell>
-          <cell r="H81">
-            <v>42198</v>
-          </cell>
-          <cell r="I81">
-            <v>274552.59999999998</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="G96">
-            <v>7.4426441757008881</v>
-          </cell>
-          <cell r="H96">
-            <v>42205</v>
-          </cell>
-          <cell r="I96">
-            <v>325636.5</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="G115">
-            <v>5.6015123244620817</v>
-          </cell>
-          <cell r="H115">
-            <v>42212</v>
-          </cell>
-          <cell r="I115">
-            <v>382676.69999999995</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="G157">
-            <v>5.0887618369093079</v>
-          </cell>
-          <cell r="H157">
-            <v>42219</v>
-          </cell>
-          <cell r="I157">
-            <v>433876.79999999993</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="G182">
-            <v>18.742774255575259</v>
-          </cell>
-          <cell r="H182">
-            <v>42226</v>
-          </cell>
-          <cell r="I182">
-            <v>561744.39999999991</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="G206">
-            <v>12.003589416226429</v>
-          </cell>
-          <cell r="H206">
-            <v>42233</v>
-          </cell>
-          <cell r="I206">
-            <v>683563.99999999988</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="G233">
-            <v>7.9048913157028133</v>
-          </cell>
-          <cell r="H233">
-            <v>42240.75</v>
-          </cell>
-          <cell r="I233">
-            <v>767860.79999999981</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="G252">
-            <v>14.665558129991911</v>
-          </cell>
-          <cell r="H252">
-            <v>42249.332638888889</v>
-          </cell>
-          <cell r="I252">
-            <v>915424.99999999988</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="G276">
-            <v>12.380763366868639</v>
-          </cell>
-          <cell r="H276">
-            <v>42254.318749999999</v>
-          </cell>
-          <cell r="I276">
-            <v>1039852.0999999999</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="G303">
-            <v>10.387718321125073</v>
-          </cell>
-          <cell r="H303">
-            <v>42261.307638888888</v>
-          </cell>
-          <cell r="I303">
-            <v>1149129.7999999998</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="G322">
-            <v>9.2990869725053749</v>
-          </cell>
-          <cell r="H322">
-            <v>42268.674305555556</v>
-          </cell>
-          <cell r="I322">
-            <v>1213271.5</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="G341">
-            <v>18.221619436565931</v>
-          </cell>
-          <cell r="H341">
-            <v>42275.4375</v>
-          </cell>
-          <cell r="I341">
-            <v>1394150.1</v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="G409">
-            <v>15.848566528659374</v>
-          </cell>
-          <cell r="H409">
-            <v>42279.405555555553</v>
-          </cell>
-          <cell r="I409">
-            <v>1599458</v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="G436">
-            <v>14.660465558590964</v>
-          </cell>
-          <cell r="H436">
-            <v>42289.323611111111</v>
-          </cell>
-          <cell r="I436">
-            <v>1746999.8</v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="G463">
-            <v>8.7491305966567907</v>
-          </cell>
-          <cell r="H463">
-            <v>42296.406944444447</v>
-          </cell>
-          <cell r="I463">
-            <v>1840336.4</v>
-          </cell>
-        </row>
-        <row r="490">
-          <cell r="G490">
-            <v>15.33843097020573</v>
-          </cell>
-          <cell r="H490">
-            <v>42303.34097222222</v>
-          </cell>
-          <cell r="I490">
-            <v>1991095.4</v>
-          </cell>
-        </row>
-        <row r="517">
-          <cell r="G517">
-            <v>14.950672359520716</v>
-          </cell>
-          <cell r="H517">
-            <v>42310.34375</v>
-          </cell>
-          <cell r="I517">
-            <v>2138057.6</v>
-          </cell>
-        </row>
-        <row r="544">
-          <cell r="G544">
-            <v>15.335116113330439</v>
-          </cell>
-          <cell r="H544">
-            <v>42317.557638888888</v>
-          </cell>
-          <cell r="I544">
-            <v>2290935.5</v>
-          </cell>
-        </row>
-        <row r="571">
-          <cell r="G571">
-            <v>13.394851398807432</v>
-          </cell>
-          <cell r="H571">
-            <v>42324.413194444445</v>
-          </cell>
-          <cell r="I571">
-            <v>2423252.2999999998</v>
-          </cell>
-        </row>
-        <row r="590">
-          <cell r="G590">
-            <v>15.593622735486486</v>
-          </cell>
-          <cell r="H590">
-            <v>42331.328472222223</v>
-          </cell>
-          <cell r="I590">
-            <v>2537878</v>
-          </cell>
-        </row>
-        <row r="601">
-          <cell r="G601">
-            <v>15.085073708190903</v>
-          </cell>
-          <cell r="H601">
-            <v>42338.523611111108</v>
-          </cell>
-          <cell r="I601">
-            <v>2651110</v>
-          </cell>
-        </row>
-        <row r="612">
-          <cell r="G612">
-            <v>20.304568932022079</v>
-          </cell>
-          <cell r="H612">
-            <v>42345.631944444445</v>
-          </cell>
-          <cell r="I612">
-            <v>2859099.5999999996</v>
-          </cell>
-        </row>
-        <row r="623">
-          <cell r="G623">
-            <v>19.761578453200041</v>
-          </cell>
-          <cell r="H623">
-            <v>42352.319444444445</v>
-          </cell>
-          <cell r="I623">
-            <v>3049391.0999999996</v>
-          </cell>
-        </row>
-        <row r="634">
-          <cell r="G634">
-            <v>18.12904033767834</v>
-          </cell>
-          <cell r="H634">
-            <v>42359.456250000003</v>
-          </cell>
-          <cell r="I634">
-            <v>3235591.7999999993</v>
-          </cell>
-        </row>
-        <row r="644">
-          <cell r="G644">
-            <v>15.28590107069822</v>
-          </cell>
-          <cell r="H644">
-            <v>42366.652777777781</v>
-          </cell>
-          <cell r="I644">
-            <v>3394088.5999999996</v>
-          </cell>
-        </row>
-        <row r="687">
-          <cell r="G687">
-            <v>16.131771273293516</v>
-          </cell>
-          <cell r="H687">
-            <v>42373.329861111109</v>
-          </cell>
-          <cell r="I687">
-            <v>3549209.9999999995</v>
-          </cell>
-        </row>
-        <row r="698">
-          <cell r="G698">
-            <v>17.981858880299484</v>
-          </cell>
-          <cell r="H698">
-            <v>42380.368055555555</v>
-          </cell>
-          <cell r="I698">
-            <v>3731366.0999999996</v>
-          </cell>
-        </row>
-        <row r="710">
-          <cell r="G710">
-            <v>16.878771198185113</v>
-          </cell>
-          <cell r="H710">
-            <v>42387.585416666669</v>
-          </cell>
-          <cell r="I710">
-            <v>3906784.6999999997</v>
-          </cell>
-        </row>
-        <row r="722">
-          <cell r="G722">
-            <v>9.0415236554635285</v>
-          </cell>
-          <cell r="H722">
-            <v>42394.638888888891</v>
-          </cell>
-          <cell r="I722">
-            <v>3998587.5999999996</v>
-          </cell>
-        </row>
-        <row r="734">
-          <cell r="G734">
-            <v>3.4121827924497659</v>
-          </cell>
-          <cell r="H734">
-            <v>42412.604166666664</v>
-          </cell>
-          <cell r="I734">
-            <v>4086870.1999999997</v>
-          </cell>
-        </row>
-        <row r="746">
-          <cell r="G746">
-            <v>0.24764791455825383</v>
-          </cell>
-          <cell r="H746">
-            <v>42416.525694444441</v>
-          </cell>
-          <cell r="I746">
-            <v>4088268.0999999996</v>
-          </cell>
-        </row>
-        <row r="758">
-          <cell r="G758">
-            <v>14.447321207159874</v>
-          </cell>
-          <cell r="H758">
-            <v>42422.362500000003</v>
-          </cell>
-          <cell r="I758">
-            <v>4209841.3</v>
-          </cell>
-        </row>
-        <row r="785">
-          <cell r="G785">
-            <v>5.101837591791492</v>
-          </cell>
-          <cell r="H785">
-            <v>42431.484027777777</v>
-          </cell>
-          <cell r="I785">
-            <v>4449039</v>
-          </cell>
-        </row>
-        <row r="813">
-          <cell r="G813">
-            <v>6.0475752393821907</v>
-          </cell>
-          <cell r="H813">
-            <v>42438.374305555553</v>
-          </cell>
-          <cell r="I813">
-            <v>4569572.7</v>
-          </cell>
-        </row>
-        <row r="833">
-          <cell r="G833">
-            <v>6.2183426235731378</v>
-          </cell>
-          <cell r="H833">
-            <v>42443.363194444442</v>
-          </cell>
-          <cell r="I833">
-            <v>4673767.7</v>
-          </cell>
-        </row>
-        <row r="853">
-          <cell r="H853">
-            <v>42450.356944444444</v>
-          </cell>
-          <cell r="I853">
-            <v>4846316.7</v>
-          </cell>
-        </row>
-        <row r="873">
-          <cell r="G873">
-            <v>6.183536976732821</v>
-          </cell>
-          <cell r="H873">
-            <v>42457.697916666664</v>
-          </cell>
-          <cell r="I873">
-            <v>4955273.7</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
@@ -6503,7 +3775,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:I1488"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
+    <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <x:selection activeCell="E597" sqref="E597"/>
       <x:selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
